--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.6.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -2103,7 +2103,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5050,7 +5050,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5193,8 +5193,8 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6983,8 +6983,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7150,12 +7150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39" t="n">
         <v>51</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>164</v>
@@ -7167,12 +7167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="40" t="n">
         <v>52</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>165</v>
@@ -7184,12 +7184,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="n">
         <v>53</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>166</v>
@@ -7201,12 +7201,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="n">
         <v>54</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>167</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.6.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$J$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="312">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1600,7 +1601,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1902,22 +1903,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2100,10 +2085,10 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="G3" activeCellId="0" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2111,12 +2096,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="104.441295546559"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -2203,7 +2188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
@@ -2218,7 +2203,9 @@
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
@@ -2226,7 +2213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
@@ -2241,7 +2228,9 @@
       <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>18</v>
       </c>
@@ -3980,8 +3969,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J77"/>
-  <mergeCells count="2">
-    <mergeCell ref="G3:G5"/>
+  <mergeCells count="1">
     <mergeCell ref="H14:H20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4003,17 +3991,17 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="G3:G5 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4140,7 +4128,7 @@
       <c r="E5" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="96" t="s">
         <v>287</v>
       </c>
       <c r="G5" s="56"/>
@@ -4186,85 +4174,85 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="G3:G5 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="87" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="87" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="87" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="87" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="87" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="87" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="87" width="78.8380566801619"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="87" width="57.8461538461538"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="87" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="87" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="87" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="87" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="87" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="87" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="87" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="87" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="83" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="83" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="83" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="83" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="83" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="83" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="83" width="79.5910931174089"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="83" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="83" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="83" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="83" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="83" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="83" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="83" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="83" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="83" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="N1" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="O1" s="94" t="s">
+      <c r="O1" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="Q1" s="94" t="s">
+      <c r="Q1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="94" t="s">
+      <c r="R1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="90" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4302,18 +4290,18 @@
       <c r="M2" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="N2" s="101"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101" t="s">
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="S2" s="101"/>
+      <c r="S2" s="97"/>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="64" t="n">
@@ -4349,18 +4337,18 @@
       <c r="M3" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="N3" s="101"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101" t="s">
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="101" t="s">
+      <c r="R3" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="S3" s="101"/>
+      <c r="S3" s="97"/>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="n">
@@ -4396,18 +4384,18 @@
       <c r="M4" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="N4" s="101"/>
+      <c r="N4" s="97"/>
       <c r="O4" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101" t="s">
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="101"/>
+      <c r="S4" s="97"/>
     </row>
     <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="64" t="n">
@@ -4443,18 +4431,18 @@
       <c r="M5" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="N5" s="101"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101" t="s">
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="101" t="s">
+      <c r="R5" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="S5" s="101"/>
+      <c r="S5" s="97"/>
     </row>
     <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="64" t="n">
@@ -4490,18 +4478,18 @@
       <c r="M6" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="N6" s="101"/>
+      <c r="N6" s="97"/>
       <c r="O6" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101" t="s">
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="101" t="s">
+      <c r="R6" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="S6" s="101"/>
+      <c r="S6" s="97"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4522,21 +4510,21 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="G3:G5 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4683,7 +4671,7 @@
       <c r="D5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="98" t="s">
         <v>138</v>
       </c>
       <c r="F5" s="18" t="s">
@@ -4721,7 +4709,7 @@
       <c r="D6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="98" t="s">
         <v>139</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -4885,7 +4873,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="49"/>
-      <c r="C12" s="103" t="n">
+      <c r="C12" s="99" t="n">
         <v>100</v>
       </c>
       <c r="D12" s="51" t="s">
@@ -4926,7 +4914,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="G3:G5 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5050,20 +5038,20 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="G3:G5 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.17004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.165991902834"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="55.165991902834"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5194,27 +5182,27 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="G3:G5 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="68.1295546558705"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -5387,20 +5375,20 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="76" t="n">
+      <c r="A4" s="64" t="n">
         <v>22</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="76" t="s">
         <v>210</v>
       </c>
       <c r="G4" s="65" t="s">
@@ -5415,7 +5403,7 @@
       <c r="J4" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="77" t="s">
         <v>212</v>
       </c>
       <c r="L4" s="68" t="s">
@@ -5438,7 +5426,7 @@
       <c r="S4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="82" t="s">
+      <c r="T4" s="78" t="s">
         <v>215</v>
       </c>
       <c r="U4" s="71"/>
@@ -5457,7 +5445,7 @@
         <v>207</v>
       </c>
       <c r="E5" s="67"/>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="76" t="s">
         <v>210</v>
       </c>
       <c r="G5" s="65" t="s">
@@ -5482,7 +5470,7 @@
         <v>195</v>
       </c>
       <c r="N5" s="65"/>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="79" t="s">
         <v>216</v>
       </c>
       <c r="P5" s="71" t="s">
@@ -5513,7 +5501,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="67"/>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="76" t="s">
         <v>210</v>
       </c>
       <c r="G6" s="65" t="s">
@@ -5554,20 +5542,20 @@
       <c r="T6" s="71"/>
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="76" t="n">
+      <c r="A7" s="64" t="n">
         <v>30</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="76" t="s">
         <v>210</v>
       </c>
       <c r="G7" s="65" t="s">
@@ -5592,7 +5580,7 @@
         <v>195</v>
       </c>
       <c r="N7" s="65"/>
-      <c r="O7" s="83" t="s">
+      <c r="O7" s="79" t="s">
         <v>216</v>
       </c>
       <c r="P7" s="71" t="s">
@@ -5628,7 +5616,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="G3:G5 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5639,14 +5627,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5726,7 +5714,7 @@
       <c r="G2" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="80" t="s">
         <v>223</v>
       </c>
       <c r="I2" s="15" t="s">
@@ -5770,17 +5758,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="G3:G5 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.1983805668016"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.7692307692308"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5913,13 +5901,13 @@
       <c r="B6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="81" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="82" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="26" t="s">
@@ -6035,28 +6023,28 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="G3:G5 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="87" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="87" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="87" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="87" width="46.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="87" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="87" width="65.3441295546559"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="87" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="87" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="87" width="83.5546558704453"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="87" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="87" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="87" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="87" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="87" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="87" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="87" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="87" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="83" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="83" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="83" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="83" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="83" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="83" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="83" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="83" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="83" width="84.3036437246964"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="83" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="83" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="83" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="83" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="83" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="83" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="83" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="83" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6128,7 +6116,7 @@
       <c r="D2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="84" t="s">
         <v>235</v>
       </c>
       <c r="F2" s="25" t="s">
@@ -6145,15 +6133,15 @@
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="85" t="s">
         <v>213</v>
       </c>
       <c r="M2" s="0"/>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="83" t="s">
         <v>197</v>
       </c>
       <c r="O2" s="0"/>
-      <c r="P2" s="87" t="s">
+      <c r="P2" s="83" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6170,7 +6158,7 @@
       <c r="D3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>235</v>
       </c>
       <c r="F3" s="25" t="s">
@@ -6187,15 +6175,15 @@
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="85" t="s">
         <v>213</v>
       </c>
       <c r="M3" s="0"/>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="83" t="s">
         <v>197</v>
       </c>
       <c r="O3" s="0"/>
-      <c r="P3" s="87" t="s">
+      <c r="P3" s="83" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6212,7 +6200,7 @@
       <c r="D4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="84" t="s">
         <v>235</v>
       </c>
       <c r="F4" s="25" t="s">
@@ -6229,15 +6217,15 @@
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="85" t="s">
         <v>213</v>
       </c>
       <c r="M4" s="0"/>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="83" t="s">
         <v>197</v>
       </c>
       <c r="O4" s="0"/>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="83" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6254,7 +6242,7 @@
       <c r="D5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="84" t="s">
         <v>235</v>
       </c>
       <c r="F5" s="25" t="s">
@@ -6271,15 +6259,15 @@
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="89" t="s">
+      <c r="L5" s="85" t="s">
         <v>213</v>
       </c>
       <c r="M5" s="0"/>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="83" t="s">
         <v>197</v>
       </c>
       <c r="O5" s="0"/>
-      <c r="P5" s="87" t="s">
+      <c r="P5" s="83" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6296,7 +6284,7 @@
       <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="84" t="s">
         <v>235</v>
       </c>
       <c r="F6" s="25" t="s">
@@ -6313,15 +6301,15 @@
       </c>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="85" t="s">
         <v>213</v>
       </c>
       <c r="M6" s="0"/>
-      <c r="N6" s="87" t="s">
+      <c r="N6" s="83" t="s">
         <v>197</v>
       </c>
       <c r="O6" s="0"/>
-      <c r="P6" s="87" t="s">
+      <c r="P6" s="83" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6338,7 +6326,7 @@
       <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="84" t="s">
         <v>235</v>
       </c>
       <c r="F7" s="25" t="s">
@@ -6355,15 +6343,15 @@
       </c>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="85" t="s">
         <v>213</v>
       </c>
       <c r="M7" s="0"/>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="83" t="s">
         <v>197</v>
       </c>
       <c r="O7" s="0"/>
-      <c r="P7" s="87" t="s">
+      <c r="P7" s="83" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6380,7 +6368,7 @@
       <c r="D8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="84" t="s">
         <v>235</v>
       </c>
       <c r="F8" s="25" t="s">
@@ -6389,26 +6377,26 @@
       <c r="G8" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="H8" s="90"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="33" t="s">
         <v>128</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="89" t="s">
+      <c r="L8" s="85" t="s">
         <v>213</v>
       </c>
       <c r="M8" s="0"/>
-      <c r="N8" s="87" t="s">
+      <c r="N8" s="83" t="s">
         <v>197</v>
       </c>
       <c r="O8" s="0"/>
-      <c r="P8" s="87" t="s">
+      <c r="P8" s="83" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="87" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -6430,27 +6418,27 @@
         <v>195</v>
       </c>
       <c r="H9" s="0"/>
-      <c r="I9" s="87" t="s">
+      <c r="I9" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="83" t="s">
         <v>213</v>
       </c>
       <c r="K9" s="0"/>
-      <c r="L9" s="89" t="s">
+      <c r="L9" s="85" t="s">
         <v>213</v>
       </c>
       <c r="M9" s="0"/>
-      <c r="N9" s="87" t="s">
+      <c r="N9" s="83" t="s">
         <v>197</v>
       </c>
       <c r="O9" s="0"/>
-      <c r="P9" s="87" t="s">
+      <c r="P9" s="83" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="88" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -6459,7 +6447,7 @@
       <c r="C10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="83" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -6468,29 +6456,29 @@
       <c r="F10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="89" t="s">
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="M10" s="93"/>
-      <c r="N10" s="87" t="s">
+      <c r="M10" s="89"/>
+      <c r="N10" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83" t="s">
+      <c r="O10" s="79"/>
+      <c r="P10" s="79" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="88" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -6499,7 +6487,7 @@
       <c r="C11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="83" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -6508,24 +6496,24 @@
       <c r="F11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83" t="s">
+      <c r="H11" s="79"/>
+      <c r="I11" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="89" t="s">
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="M11" s="93"/>
-      <c r="N11" s="87" t="s">
+      <c r="M11" s="89"/>
+      <c r="N11" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83" t="s">
+      <c r="O11" s="79"/>
+      <c r="P11" s="79" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6548,26 +6536,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.4534412955466"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.7773279352227"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6575,73 +6563,73 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="90" t="s">
         <v>199</v>
       </c>
       <c r="G1" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="90" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="90" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="N1" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="94" t="s">
+      <c r="O1" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="Q1" s="94" t="s">
+      <c r="Q1" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="94" t="s">
+      <c r="R1" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="T1" s="94" t="s">
+      <c r="T1" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="U1" s="94" t="s">
+      <c r="U1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="94" t="s">
+      <c r="V1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="94" t="s">
+      <c r="W1" s="90" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6662,7 +6650,7 @@
       <c r="F2" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="91" t="s">
         <v>254</v>
       </c>
       <c r="H2" s="65" t="s">
@@ -6716,7 +6704,7 @@
       <c r="F3" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="91" t="s">
         <v>259</v>
       </c>
       <c r="H3" s="65" t="s">
@@ -6728,17 +6716,17 @@
       <c r="J3" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
+      <c r="L3" s="92"/>
+      <c r="M3" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="N3" s="97" t="s">
+      <c r="N3" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="O3" s="97" t="s">
+      <c r="O3" s="93" t="s">
         <v>193</v>
       </c>
       <c r="P3" s="65"/>
@@ -6776,24 +6764,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="G3:G5 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6867,16 +6855,16 @@
       <c r="F2" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="99"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="71" t="s">
         <v>196</v>
       </c>
@@ -6906,13 +6894,13 @@
       <c r="F3" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="99" t="n">
+      <c r="I3" s="95" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="4"/>
@@ -6945,13 +6933,13 @@
       <c r="F4" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="95" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="95" t="s">
         <v>275</v>
       </c>
       <c r="J4" s="4"/>
@@ -6983,17 +6971,17 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="G3:G5 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.5587044534413"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.9878542510122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.6.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$J$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="318">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -97,7 +98,7 @@
     <t xml:space="preserve">100/0</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion - Option 1</t>
+    <t xml:space="preserve">Primera Consumo</t>
   </si>
   <si>
     <r>
@@ -132,7 +133,7 @@
     <t xml:space="preserve">Pass/Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion - Option 2</t>
+    <t xml:space="preserve">Bloque Corporativo</t>
   </si>
   <si>
     <r>
@@ -158,7 +159,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion - Option 3</t>
+    <t xml:space="preserve">Primera Liderazgo</t>
   </si>
   <si>
     <r>
@@ -190,7 +191,7 @@
     <t xml:space="preserve">Relevant option should pass for this KPI to get the score (1 or 2 or 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posicion - Option 1</t>
+    <t xml:space="preserve">Respeto Enf. CC</t>
   </si>
   <si>
     <r>
@@ -225,7 +226,7 @@
     <t xml:space="preserve">Pass/Fail/ NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posicion - Option 2</t>
+    <t xml:space="preserve">Respeto Cámara Fría</t>
   </si>
   <si>
     <r>
@@ -257,7 +258,7 @@
     <t xml:space="preserve">At least 1 bay with 100% Cooke products (excluding empty, include Other, POSM and SKU) and the bay(door) have at least 25 facings</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posicion - Option 3</t>
+    <t xml:space="preserve">Repeto Enf. CC + Càmara fría</t>
   </si>
   <si>
     <r>
@@ -342,7 +343,7 @@
     <t xml:space="preserve">If the store have only 1 specific template for Coke Cooler, the KPI will get the point if all the KPIs for "Option 1" passed. If the store have only 1 specific Coke cooler KPI will get the points if "Opcion 2" KPI passed. If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
   </si>
   <si>
-    <t xml:space="preserve">Acomodo por Bloques - Opcion 1</t>
+    <t xml:space="preserve">Enfriador Rojo - Acomodo</t>
   </si>
   <si>
     <r>
@@ -371,6 +372,9 @@
     <t xml:space="preserve">Each Relevant Sub-Category in the scene is blocked together</t>
   </si>
   <si>
+    <t xml:space="preserve">Acomodo por Bloques - Opcion 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">B. Colas SS</t>
   </si>
   <si>
@@ -419,7 +423,7 @@
     <t xml:space="preserve">Opción 1 ¿Hay un solo bloque de Agua?</t>
   </si>
   <si>
-    <t xml:space="preserve">Acomodo Categorizador - Opcion 2</t>
+    <t xml:space="preserve">Categorizador - Acomodo</t>
   </si>
   <si>
     <r>
@@ -454,13 +458,13 @@
     <t xml:space="preserve">Acomodo Categorizador</t>
   </si>
   <si>
-    <t xml:space="preserve">Acomodo Categorizador - Opcion 2 (Detalle)</t>
+    <t xml:space="preserve">Categorizador - Acomodo (Detalle)</t>
   </si>
   <si>
     <t xml:space="preserve">Is each category blocked?</t>
   </si>
   <si>
-    <t xml:space="preserve">Acomodo - Opcion 3</t>
+    <t xml:space="preserve">Enfriador Rojo + Categorizador - Acomodo</t>
   </si>
   <si>
     <r>
@@ -498,7 +502,7 @@
     <t xml:space="preserve">Mediano,Grande</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 1</t>
+    <t xml:space="preserve">Enfriador Rojo - Colas</t>
   </si>
   <si>
     <r>
@@ -527,7 +531,7 @@
     <t xml:space="preserve">Coca Cola(brand) Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 48-50%</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 2</t>
+    <t xml:space="preserve">Categorizador - Colas</t>
   </si>
   <si>
     <r>
@@ -556,10 +560,13 @@
     <t xml:space="preserve">23a</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 2 (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 3</t>
+    <t xml:space="preserve">Bloques Colas - Opcion 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorizador - Colas (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador Rojo + Categorizador - Colas</t>
   </si>
   <si>
     <r>
@@ -585,7 +592,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 4</t>
+    <t xml:space="preserve">Puerta Dedicada - Colas</t>
   </si>
   <si>
     <r>
@@ -617,7 +624,7 @@
     <t xml:space="preserve">Bloques Frutales 25%</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 1</t>
+    <t xml:space="preserve">Enfriador Rojo - Frutales</t>
   </si>
   <si>
     <r>
@@ -646,16 +653,19 @@
     <t xml:space="preserve">Frutales Facings / Total Coke (manufacturer) facings in the Coke Coolers should be between 23-25%</t>
   </si>
   <si>
+    <t xml:space="preserve">Categorizador - Frutales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bloques Frutales - Opcion 2</t>
   </si>
   <si>
-    <t xml:space="preserve">28a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 2 (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 3</t>
+    <t xml:space="preserve">Categorizador - Frutales (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador Rojo + Categorizador - Frutales</t>
   </si>
   <si>
     <r>
@@ -681,7 +691,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 4</t>
+    <t xml:space="preserve">Puerta Dedicada - Frutales</t>
   </si>
   <si>
     <r>
@@ -1085,6 +1095,15 @@
     <t xml:space="preserve">Bloques Frutales - Opcion 1,Bloques Frutales - Opcion 2 (Detalle)</t>
   </si>
   <si>
+    <t xml:space="preserve">Acomodo Categorizador - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Colas - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloques Frutales - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
     <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua</t>
   </si>
   <si>
@@ -1281,25 +1300,25 @@
     <t xml:space="preserve">Component aggregation</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion - Option 1,Primera posicion - Option 2,Primera posicion - Option 3</t>
+    <t xml:space="preserve">Primera Consumo,Bloque Corporativo,Primera Liderazgo</t>
   </si>
   <si>
     <t xml:space="preserve">one-passed</t>
   </si>
   <si>
-    <t xml:space="preserve">Respeto posicion - Option 1,Respeto posicion - Option 2,Respeto posicion - Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo por Bloques - Opcion 1,Acomodo Categorizador - Opcion 2,Acomodo - Opcion 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloques Colas - Opcion 1,Bloques Colas - Opcion 2,Bloques Colas - Opcion 3,Bloques Colas - Opcion 4</t>
+    <t xml:space="preserve">Respeto Enf. CC,Respeto Cámara Fría,Repeto Enf. CC + Càmara fría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador Rojo - Acomodo,Categorizador - Acomodo,Enfriador Rojo + Categorizador - Acomodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador Rojo - Colas,Categorizador - Colas,Enfriador Rojo + Categorizador - Colas,Puerta Dedicada - Colas</t>
   </si>
   <si>
     <t xml:space="preserve">Acomodo por Bloques,Respeto</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloques Frutales - Opcion 1,Bloques Frutales - Opcion 2,Bloques Frutales - Opcion 3,Bloques Frutales - Opcion 4</t>
+    <t xml:space="preserve">Enfriador Rojo - Frutales,Categorizador - Frutales,Enfriador Rojo + Categorizador - Frutales,Puerta Dedicada - Frutales</t>
   </si>
   <si>
     <t xml:space="preserve">Primera posicion,Respeto,SOCI,Cap. Fria,Acomodo por Bloques,Bloques Colas 50%,Bloques Frutales 25%,Llenado 75%</t>
@@ -1458,14 +1477,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFDEEBF7"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1601,7 +1620,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="108">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1630,6 +1649,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1682,58 +1705,66 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1846,7 +1877,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1862,42 +1893,42 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1906,7 +1937,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1934,11 +1965,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1954,10 +1989,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1966,7 +2009,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1994,8 +2037,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2085,10 +2136,10 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G3" activeCellId="0" sqref="G3:G5"/>
+      <selection pane="bottomLeft" activeCell="D32" activeCellId="1" sqref="G2:G11 D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2096,12 +2147,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="104.441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="105.404858299595"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -2171,11 +2222,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2188,19 +2239,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2213,19 +2264,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+    <row r="5" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -2239,24 +2290,24 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
@@ -2271,67 +2322,67 @@
         <v>24</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="0" t="s">
@@ -2355,10 +2406,10 @@
       <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="20" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="0" t="s">
@@ -2369,7 +2420,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2378,17 +2429,17 @@
       <c r="C11" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="0" t="s">
@@ -2399,13 +2450,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="C12" s="22" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2416,7 +2467,7 @@
       <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="23" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="0" t="s">
@@ -2424,24 +2475,24 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="9" t="n">
         <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="23" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="0" t="s">
@@ -2449,25 +2500,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>50</v>
+      <c r="B14" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="25" t="s">
         <v>56</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>19</v>
@@ -2477,67 +2528,67 @@
       <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="9"/>
+      <c r="B15" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="H15" s="27"/>
       <c r="I15" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="9"/>
+      <c r="B16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="27"/>
       <c r="I16" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="9"/>
+      <c r="B17" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="H17" s="27"/>
       <c r="I17" s="0" t="s">
         <v>19</v>
       </c>
@@ -2546,159 +2597,159 @@
       <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="9"/>
+      <c r="B18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="H18" s="27"/>
       <c r="I18" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9"/>
+      <c r="B19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="H19" s="27"/>
       <c r="I19" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="9"/>
+      <c r="B20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="H20" s="27"/>
       <c r="I20" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="26" t="s">
-        <v>69</v>
+      <c r="C21" s="10"/>
+      <c r="D21" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="7" t="s">
-        <v>70</v>
+      <c r="F21" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>71</v>
+      <c r="H21" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="26" t="s">
         <v>74</v>
       </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="7" t="s">
-        <v>75</v>
+      <c r="F22" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>78</v>
+      <c r="H23" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
+      <c r="A24" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="18" t="s">
+      <c r="E24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="0" t="s">
@@ -2709,23 +2760,23 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="18" t="s">
+      <c r="D25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I25" s="0" t="s">
@@ -2735,121 +2786,121 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>84</v>
+      <c r="H26" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>71</v>
+      <c r="H27" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
+      <c r="B28" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="n">
         <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>93</v>
+      <c r="H30" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>42</v>
@@ -2859,21 +2910,21 @@
       <c r="A31" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="18" t="s">
+      <c r="D31" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="0" t="s">
         <v>19</v>
       </c>
@@ -2881,128 +2932,128 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+    <row r="32" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="n">
         <v>27</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="D32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="22" t="s">
-        <v>97</v>
+      <c r="H32" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+    <row r="33" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
         <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="22" t="s">
-        <v>71</v>
+      <c r="H33" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>78</v>
+      <c r="H35" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
+    <row r="36" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="n">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="22" t="s">
-        <v>105</v>
+      <c r="H36" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="9" t="n">
         <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3012,17 +3063,17 @@
         <v>10</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>42</v>
@@ -3031,270 +3082,270 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" s="31" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="n">
+    <row r="38" s="34" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="32" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="30" t="n">
+      <c r="B38" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="33" t="n">
         <v>60</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30" t="s">
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="30"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
+      <c r="A39" s="11" t="n">
         <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="19"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+      <c r="A41" s="9" t="n">
         <v>34</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="19"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
         <v>35</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C43" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="19"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="n">
+      <c r="A45" s="11" t="n">
         <v>36</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C45" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D45" s="32" t="s">
-        <v>125</v>
+      <c r="D45" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="32" t="s">
-        <v>125</v>
+      <c r="A46" s="11"/>
+      <c r="B46" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="32" t="s">
-        <v>127</v>
+      <c r="D46" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="19"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="n">
+      <c r="A47" s="9" t="n">
         <v>37</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C47" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>130</v>
+      <c r="A48" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="19"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>38</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C49" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>19</v>
@@ -3303,668 +3354,668 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" s="31" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="n">
+    <row r="50" s="34" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="30" t="n">
+      <c r="B50" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="33" t="n">
         <v>25</v>
       </c>
-      <c r="D50" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30" t="s">
+      <c r="D50" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="30"/>
+      <c r="H50" s="33"/>
     </row>
     <row r="51" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="n">
+      <c r="A51" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>136</v>
+      <c r="B51" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C51" s="5" t="n">
         <v>10</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="n">
+      <c r="A52" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>136</v>
+      <c r="B52" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C52" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="34" t="n">
+      <c r="A53" s="37" t="n">
         <v>41</v>
       </c>
-      <c r="B53" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37" t="s">
+      <c r="B53" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" s="35" t="s">
+      <c r="C53" s="39"/>
+      <c r="D53" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H53" s="38" t="s">
+      <c r="E53" s="40" t="s">
         <v>144</v>
       </c>
+      <c r="F53" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="39" t="n">
+      <c r="A54" s="42" t="n">
         <v>42</v>
       </c>
-      <c r="B54" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="F54" s="37" t="s">
+      <c r="B54" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="G54" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>147</v>
+      <c r="H54" s="41" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40" t="n">
+      <c r="A55" s="43" t="n">
         <v>43</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="H55" s="38" t="s">
-        <v>150</v>
+      <c r="B55" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="39" t="n">
+      <c r="A56" s="42" t="n">
         <v>44</v>
       </c>
-      <c r="B56" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>153</v>
+      <c r="B56" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="n">
+      <c r="A57" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="B57" s="21" t="s">
-        <v>136</v>
+      <c r="B57" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C57" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="n">
+      <c r="A58" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="B58" s="21" t="s">
-        <v>136</v>
+      <c r="B58" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C58" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H58" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="39" t="n">
+      <c r="A59" s="42" t="n">
         <v>46</v>
       </c>
-      <c r="B59" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="37" t="s">
+      <c r="B59" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E59" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="H59" s="38" t="s">
-        <v>144</v>
+      <c r="C59" s="46"/>
+      <c r="D59" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="40" t="n">
+      <c r="A60" s="43" t="n">
         <v>47</v>
       </c>
-      <c r="B60" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F60" s="37" t="s">
+      <c r="B60" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="42" t="n">
+        <v>48</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="G60" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="39" t="n">
-        <v>48</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" s="37" t="s">
+      <c r="G61" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="G61" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H61" s="38" t="s">
-        <v>150</v>
+      <c r="H61" s="41" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="40" t="n">
+      <c r="A62" s="43" t="n">
         <v>49</v>
       </c>
-      <c r="B62" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G62" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="38" t="s">
-        <v>153</v>
+      <c r="B62" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" s="41" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="n">
+      <c r="A63" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="B63" s="21" t="s">
-        <v>136</v>
+      <c r="B63" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C63" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>162</v>
+        <v>137</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="39" t="n">
+      <c r="A64" s="42" t="n">
         <v>51</v>
       </c>
-      <c r="B64" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="37" t="s">
-        <v>164</v>
+      <c r="B64" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="43" t="n">
+        <v>52</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="42" t="n">
+        <v>53</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="43" t="n">
+        <v>54</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G67" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="F64" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G64" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="40" t="n">
-        <v>52</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="G65" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39" t="n">
-        <v>53</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G66" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H66" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="40" t="n">
-        <v>54</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F67" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" s="48" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="n">
+    </row>
+    <row r="68" s="51" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="B68" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="47" t="n">
+      <c r="B68" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="D68" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47" t="s">
+      <c r="D68" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="B69" s="47" t="s">
-        <v>168</v>
+      <c r="B69" s="50" t="s">
+        <v>171</v>
       </c>
       <c r="C69" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="n">
+      <c r="A70" s="11" t="n">
         <v>57</v>
       </c>
-      <c r="B70" s="47" t="s">
-        <v>168</v>
+      <c r="B70" s="50" t="s">
+        <v>171</v>
       </c>
       <c r="C70" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>172</v>
+      <c r="H70" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="n">
+      <c r="A71" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="B71" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="47" t="n">
+      <c r="B71" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="D71" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47" t="s">
+      <c r="D71" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="n">
+      <c r="A72" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="50" t="n">
+      <c r="B72" s="52"/>
+      <c r="C72" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="D72" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" s="51"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52" t="s">
+      <c r="D72" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="54"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="n">
+      <c r="A73" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="B73" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="53" t="n">
+      <c r="B73" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="56"/>
+      <c r="D73" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="59"/>
       <c r="G73" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-    </row>
-    <row r="74" s="54" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="40" t="n">
+        <v>137</v>
+      </c>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+    </row>
+    <row r="74" s="57" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="43" t="n">
         <v>61</v>
       </c>
-      <c r="B74" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="37" t="s">
+      <c r="B74" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="62"/>
+      <c r="D74" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="G74" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H74" s="38" t="s">
-        <v>144</v>
+      <c r="F74" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G74" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H74" s="41" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="40" t="n">
+      <c r="A75" s="43" t="n">
         <v>62</v>
       </c>
-      <c r="B75" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E75" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" s="37" t="s">
+      <c r="B75" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="62"/>
+      <c r="D75" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="G75" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H75" s="38" t="s">
-        <v>147</v>
+      <c r="H75" s="41" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="40" t="n">
+      <c r="A76" s="43" t="n">
         <v>63</v>
       </c>
-      <c r="B76" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="59"/>
-      <c r="D76" s="37" t="s">
+      <c r="B76" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="E76" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="G76" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H76" s="38" t="s">
-        <v>150</v>
+      <c r="C76" s="62"/>
+      <c r="D76" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="40" t="n">
+      <c r="A77" s="43" t="n">
         <v>64</v>
       </c>
-      <c r="B77" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="E77" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G77" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H77" s="38" t="s">
-        <v>153</v>
+      <c r="B77" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="62"/>
+      <c r="D77" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3991,17 +4042,17 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="G3:G5 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="G2:G11 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4022,16 +4073,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -4040,119 +4091,119 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>136</v>
+      <c r="B2" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>136</v>
+      <c r="B3" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>136</v>
+      <c r="B4" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="53" t="n">
+      <c r="B5" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>175</v>
+      <c r="D5" s="57" t="s">
+        <v>178</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="96" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+        <v>137</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4173,323 +4224,323 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="G3:G5 D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="G2:G11 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="83" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="83" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="83" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="83" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="83" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="83" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="83" width="79.5910931174089"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="83" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="83" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="83" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="83" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="83" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="83" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="83" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="83" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="83" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="87" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="87" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="87" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="87" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="87" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="87" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="87" width="80.2307692307692"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="87" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="87" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="87" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="87" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="87" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="87" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="87" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="87" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="87" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="90" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="96" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="90" t="s">
+      <c r="H1" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="90" t="s">
-        <v>225</v>
-      </c>
-      <c r="M1" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="90" t="s">
-        <v>250</v>
-      </c>
-      <c r="O1" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="P1" s="90" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q1" s="90" t="s">
+      <c r="L1" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="O1" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="90" t="s">
-        <v>226</v>
+      <c r="S1" s="96" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="n">
+      <c r="A2" s="67" t="n">
         <v>33</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="73" t="n">
+      <c r="B2" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="75" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="73" t="n">
+      <c r="D2" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="75" t="n">
         <v>939</v>
       </c>
-      <c r="F2" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97" t="s">
+      <c r="F2" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="N2" s="103"/>
+      <c r="O2" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="97"/>
+      <c r="R2" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" s="103"/>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="n">
+      <c r="A3" s="67" t="n">
         <v>34</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="73" t="n">
+      <c r="B3" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="75" t="n">
         <v>6</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="75" t="n">
+        <v>957</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="73" t="n">
-        <v>957</v>
-      </c>
-      <c r="F3" s="65" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="N3" s="103"/>
+      <c r="O3" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="H3" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="N3" s="97"/>
-      <c r="O3" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97" t="s">
+      <c r="S3" s="103"/>
+    </row>
+    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="67" t="n">
+        <v>35</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="75" t="n">
+        <v>941</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" s="69"/>
+      <c r="J4" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="N4" s="103"/>
+      <c r="O4" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="S3" s="97"/>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="n">
-        <v>35</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="73" t="n">
+      <c r="R4" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" s="103"/>
+    </row>
+    <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="67" t="n">
+        <v>36</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="75" t="n">
+        <v>945</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" s="103"/>
+      <c r="O5" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="S5" s="103"/>
+    </row>
+    <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="67" t="n">
+        <v>37</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="73" t="n">
-        <v>941</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="N4" s="97"/>
-      <c r="O4" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97" t="s">
+      <c r="D6" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="75" t="n">
+        <v>945</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="N6" s="103"/>
+      <c r="O6" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="S4" s="97"/>
-    </row>
-    <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="n">
-        <v>36</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="73" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="73" t="n">
-        <v>945</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="N5" s="97"/>
-      <c r="O5" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="S5" s="97"/>
-    </row>
-    <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="n">
-        <v>37</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="73" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="73" t="n">
-        <v>945</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="H6" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="N6" s="97"/>
-      <c r="O6" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="S6" s="97"/>
+      <c r="R6" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="103"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4509,22 +4560,22 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="G3:G5 D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4545,22 +4596,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -4569,7 +4620,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4588,11 +4639,11 @@
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>296</v>
+      <c r="G2" s="104" t="s">
+        <v>302</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4600,43 +4651,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>298</v>
+      <c r="G3" s="94" t="s">
+        <v>304</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+        <v>303</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="L3" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21" t="n">
+      <c r="C4" s="22" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -4646,45 +4697,45 @@
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>299</v>
+      <c r="G4" s="94" t="s">
+        <v>305</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+        <v>303</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
       <c r="L4" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>300</v>
+      <c r="G5" s="79" t="s">
+        <v>306</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4697,56 +4748,56 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>300</v>
+      <c r="G6" s="79" t="s">
+        <v>306</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="18" t="s">
+      <c r="D7" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>302</v>
+      <c r="G7" s="79" t="s">
+        <v>308</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4758,142 +4809,142 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="31" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="n">
+    <row r="8" s="34" customFormat="true" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="32" t="n">
         <v>32</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="30" t="n">
+      <c r="B8" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="33" t="n">
         <v>60</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="G8" s="106" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="30" t="n">
+      <c r="B9" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="33" t="n">
         <v>25</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30" t="s">
+      <c r="D9" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" s="48" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="G9" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" s="51" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="47" t="n">
+      <c r="B10" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47" t="s">
+      <c r="D10" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="G10" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="47" t="n">
+      <c r="B11" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47" t="s">
+      <c r="D11" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
+      <c r="G11" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="99" t="n">
+      <c r="B12" s="52"/>
+      <c r="C12" s="107" t="n">
         <v>100</v>
       </c>
-      <c r="D12" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52" t="s">
+      <c r="D12" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="G12" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4914,7 +4965,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="G3:G5 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="G2:G11 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4924,47 +4975,47 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="63" t="s">
-        <v>199</v>
+      <c r="E1" s="66" t="s">
+        <v>202</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -4974,48 +5025,48 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="n">
+      <c r="A2" s="67" t="n">
         <v>31</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="41" t="s">
+      <c r="C2" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="N2" s="72" t="s">
-        <v>311</v>
-      </c>
-      <c r="O2" s="71" t="s">
+      <c r="H2" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="O2" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="73" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5038,20 +5089,20 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="G3:G5 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="G2:G11 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5071,37 +5122,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="60" t="s">
+      <c r="K1" s="63" t="s">
         <v>187</v>
       </c>
+      <c r="L1" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>190</v>
+      </c>
       <c r="O1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>8</v>
@@ -5111,50 +5162,50 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="G2" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="I2" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="J2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>198</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>42</v>
@@ -5181,87 +5232,87 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="G3:G5 C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="G2:G11 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="68.663967611336"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.8421052631579"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="64.4858299595142"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="63" t="s">
-        <v>199</v>
+      <c r="E1" s="66" t="s">
+        <v>202</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>8</v>
@@ -5271,331 +5322,331 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="n">
+      <c r="A2" s="67" t="n">
         <v>6</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68" t="s">
+      <c r="E2" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="68" t="s">
+      <c r="H2" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="R2" s="74" t="n">
+        <v>100</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="73"/>
+    </row>
+    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="67" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="76"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="K2" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q2" s="71" t="s">
+      <c r="O3" s="78"/>
+      <c r="P3" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="R3" s="74" t="n">
+        <v>30</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="67" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="69"/>
+      <c r="F4" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="R2" s="72" t="n">
-        <v>100</v>
-      </c>
-      <c r="S2" s="71" t="s">
+      <c r="M4" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="R4" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="S4" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="U4" s="73"/>
+    </row>
+    <row r="5" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="67" t="n">
+        <v>25</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="L5" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="76"/>
+      <c r="O5" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q5" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="R5" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="S5" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="73"/>
+    </row>
+    <row r="6" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="67" t="n">
+        <v>27</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="R6" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="S6" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="73"/>
+    </row>
+    <row r="7" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="67" t="n">
         <v>30</v>
       </c>
-      <c r="T2" s="71"/>
-    </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="n">
-        <v>9</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="41" t="s">
+      <c r="B7" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q3" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="R3" s="72" t="n">
-        <v>30</v>
-      </c>
-      <c r="S3" s="71" t="s">
+      <c r="N7" s="76"/>
+      <c r="O7" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q7" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="R7" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="S7" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="71" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="n">
-        <v>22</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="R4" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="S4" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="U4" s="71"/>
-    </row>
-    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="n">
-        <v>25</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="P5" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="R5" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="S5" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="71"/>
-    </row>
-    <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="n">
-        <v>27</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="R6" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="S6" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="71"/>
-    </row>
-    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="M7" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="N7" s="65"/>
-      <c r="O7" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="P7" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="R7" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="S7" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="71"/>
+      <c r="T7" s="73"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5616,7 +5667,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="G3:G5 H2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="G2:G11 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5627,14 +5678,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5659,35 +5710,35 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>199</v>
+      <c r="G1" s="66" t="s">
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>8</v>
@@ -5696,38 +5747,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" customFormat="false" ht="122.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="69" t="s">
-        <v>206</v>
+      <c r="G2" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>209</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5758,17 +5809,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="G3:G5 B5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G2:G11 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.7368421052632"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5790,7 +5841,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -5799,188 +5850,188 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>227</v>
+      <c r="F2" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="68.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>78</v>
+      <c r="E3" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>229</v>
+      <c r="E4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>232</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>230</v>
+      <c r="E5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="n">
+    <row r="6" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="37" t="n">
         <v>19</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="81" t="s">
+      <c r="B6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>74</v>
+      <c r="E6" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>234</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>88</v>
+      <c r="E7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>235</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="B8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>100</v>
+      <c r="E8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>19</v>
@@ -6023,28 +6074,28 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="G3:G5 E2"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="G2:G11 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="83" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="83" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="83" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="83" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="83" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="83" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="83" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="83" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="83" width="84.3036437246964"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="83" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="83" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="83" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="83" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="83" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="83" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="83" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="83" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="87" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="87" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="87" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="87" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="87" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="87" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="87" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="87" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="87" width="85.0526315789474"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="87" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="87" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="87" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="87" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="87" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="87" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="87" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="87" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6061,37 +6112,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>8</v>
@@ -6100,48 +6151,48 @@
         <v>9</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="85" t="s">
-        <v>213</v>
+      <c r="E2" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="M2" s="0"/>
-      <c r="N2" s="83" t="s">
-        <v>197</v>
+      <c r="N2" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="O2" s="0"/>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="87" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6150,124 +6201,124 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="85" t="s">
-        <v>213</v>
+        <v>56</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="M3" s="0"/>
-      <c r="N3" s="83" t="s">
-        <v>197</v>
+      <c r="N3" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="O3" s="0"/>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="87" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="85" t="s">
-        <v>213</v>
+        <v>56</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="M4" s="0"/>
-      <c r="N4" s="83" t="s">
-        <v>197</v>
+      <c r="N4" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="O4" s="0"/>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="87" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="11" t="n">
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="85" t="s">
-        <v>213</v>
+        <v>56</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="M5" s="0"/>
-      <c r="N5" s="83" t="s">
-        <v>197</v>
+      <c r="N5" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="O5" s="0"/>
-      <c r="P5" s="83" t="s">
+      <c r="P5" s="87" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6276,244 +6327,244 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="85" t="s">
-        <v>213</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="M6" s="0"/>
-      <c r="N6" s="83" t="s">
-        <v>197</v>
+      <c r="N6" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="O6" s="0"/>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="87" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="85" t="s">
-        <v>213</v>
+        <v>56</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="M7" s="0"/>
-      <c r="N7" s="83" t="s">
-        <v>197</v>
+      <c r="N7" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="O7" s="0"/>
-      <c r="P7" s="83" t="s">
+      <c r="P7" s="87" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="11" t="n">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="85" t="s">
-        <v>213</v>
+        <v>56</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="90"/>
+      <c r="I8" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="M8" s="0"/>
-      <c r="N8" s="83" t="s">
-        <v>197</v>
+      <c r="N8" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="O8" s="0"/>
-      <c r="P8" s="83" t="s">
+      <c r="P8" s="87" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="87" t="s">
+    <row r="9" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>195</v>
+      <c r="G9" s="27" t="s">
+        <v>198</v>
       </c>
       <c r="H9" s="0"/>
-      <c r="I9" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" s="83" t="s">
-        <v>213</v>
+      <c r="I9" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="J9" s="87" t="s">
+        <v>216</v>
       </c>
       <c r="K9" s="0"/>
-      <c r="L9" s="85" t="s">
-        <v>213</v>
+      <c r="L9" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="M9" s="0"/>
-      <c r="N9" s="83" t="s">
-        <v>197</v>
+      <c r="N9" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="O9" s="0"/>
-      <c r="P9" s="83" t="s">
+      <c r="P9" s="87" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="10" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="89"/>
-      <c r="N10" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79" t="s">
+      <c r="B10" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" s="95"/>
+      <c r="N10" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" s="89"/>
-      <c r="N11" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79" t="s">
+    <row r="11" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="M11" s="95"/>
+      <c r="N11" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6536,26 +6587,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G3:G5"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.7773279352227"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.0971659919028"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6563,187 +6614,187 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="90" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="N1" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="O1" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="P1" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="U1" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="96" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="67" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="K1" s="90" t="s">
-        <v>245</v>
-      </c>
-      <c r="L1" s="90" t="s">
-        <v>246</v>
-      </c>
-      <c r="M1" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="N1" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="O1" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="P1" s="90" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q1" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="90" t="s">
-        <v>250</v>
-      </c>
-      <c r="S1" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="T1" s="90" t="s">
-        <v>251</v>
-      </c>
-      <c r="U1" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="90" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="n">
-        <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="71" t="s">
+      <c r="S2" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="73"/>
+    </row>
+    <row r="3" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="67" t="n">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" s="98"/>
+      <c r="M3" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="O3" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="W2" s="71"/>
-    </row>
-    <row r="3" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="n">
-        <v>57</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="K3" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="N3" s="93" t="s">
-        <v>263</v>
-      </c>
-      <c r="O3" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="S3" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71" t="s">
+      <c r="P3" s="76"/>
+      <c r="Q3" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="71" t="s">
+      <c r="V3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="71"/>
+      <c r="W3" s="73"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6764,24 +6815,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="G3:G5 E4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G2:G11 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6800,154 +6851,154 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="95" t="s">
-        <v>268</v>
-      </c>
-      <c r="I2" s="95" t="s">
-        <v>269</v>
-      </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="71" t="s">
-        <v>196</v>
+        <v>271</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" s="101"/>
+      <c r="K2" s="73" t="s">
+        <v>199</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="F3" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="95" t="n">
+      <c r="G3" s="100" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="101" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="71" t="s">
-        <v>196</v>
+      <c r="K3" s="73" t="s">
+        <v>199</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="380" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+    <row r="4" customFormat="false" ht="325.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="I4" s="95" t="s">
-        <v>275</v>
+        <v>271</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>281</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="71" t="s">
-        <v>196</v>
+      <c r="K4" s="73" t="s">
+        <v>199</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>19</v>
@@ -6972,16 +7023,16 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="G3:G5 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="G2:G11 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.9878542510122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6996,279 +7047,279 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="n">
+      <c r="A2" s="37" t="n">
         <v>41</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>140</v>
       </c>
+      <c r="C2" s="40" t="s">
+        <v>143</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="n">
+      <c r="A3" s="42" t="n">
         <v>42</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>145</v>
+      <c r="B3" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>148</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
+      <c r="A4" s="43" t="n">
         <v>43</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>148</v>
+      <c r="B4" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>151</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="n">
+      <c r="A5" s="42" t="n">
         <v>44</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>151</v>
+      <c r="B5" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="n">
+      <c r="A6" s="42" t="n">
         <v>46</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>157</v>
       </c>
+      <c r="C6" s="40" t="s">
+        <v>160</v>
+      </c>
       <c r="D6" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="n">
+      <c r="A7" s="43" t="n">
         <v>47</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>158</v>
+      <c r="B7" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="n">
+      <c r="A8" s="42" t="n">
         <v>48</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>159</v>
+      <c r="B8" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="n">
+      <c r="A9" s="43" t="n">
         <v>49</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>160</v>
+      <c r="B9" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>163</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="n">
+      <c r="A10" s="42" t="n">
         <v>51</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="38" t="s">
         <v>164</v>
       </c>
+      <c r="C10" s="40" t="s">
+        <v>167</v>
+      </c>
       <c r="D10" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="n">
+      <c r="A11" s="43" t="n">
         <v>52</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>165</v>
+      <c r="B11" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>168</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="n">
+      <c r="A12" s="42" t="n">
         <v>53</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>166</v>
+      <c r="B12" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>169</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="n">
+      <c r="A13" s="43" t="n">
         <v>54</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>167</v>
+      <c r="B13" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="n">
+      <c r="A14" s="43" t="n">
         <v>61</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>176</v>
+      <c r="B14" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>179</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="n">
+      <c r="A15" s="43" t="n">
         <v>62</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>177</v>
+      <c r="B15" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="n">
+      <c r="A16" s="43" t="n">
         <v>63</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="61" t="s">
         <v>178</v>
       </c>
+      <c r="C16" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="n">
+      <c r="A17" s="43" t="n">
         <v>64</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>179</v>
+      <c r="B17" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -7279,20 +7330,20 @@
         <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.6.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,6 +40,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="320">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -343,7 +344,7 @@
     <t xml:space="preserve">If the store have only 1 specific template for Coke Cooler, the KPI will get the point if all the KPIs for "Option 1" passed. If the store have only 1 specific Coke cooler KPI will get the points if "Opcion 2" KPI passed. If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
   </si>
   <si>
-    <t xml:space="preserve">Enfriador Rojo - Acomodo</t>
+    <t xml:space="preserve">Enfriador Rojo – Acomodo</t>
   </si>
   <si>
     <r>
@@ -1065,6 +1066,9 @@
     <t xml:space="preserve">minimum_facings</t>
   </si>
   <si>
+    <t xml:space="preserve">Respeto Camara Fria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Per bay SOS Targets</t>
   </si>
   <si>
@@ -1102,6 +1106,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bloques Frutales - Opcion 2 (Detalle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador Rojo - Acomodo</t>
   </si>
   <si>
     <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua</t>
@@ -1620,7 +1627,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2035,10 +2042,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2136,10 +2139,10 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D32" activeCellId="1" sqref="G2:G11 D32"/>
+      <selection pane="bottomLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2147,12 +2150,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="105.404858299595"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="106.368421052632"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -2239,7 +2242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>22</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -4042,17 +4045,17 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="G2:G11 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4073,16 +4076,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -4091,7 +4094,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4134,7 +4137,7 @@
         <v>137</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="36"/>
@@ -4157,7 +4160,7 @@
         <v>137</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="36"/>
@@ -4180,7 +4183,7 @@
         <v>137</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G5" s="59"/>
       <c r="H5" s="60"/>
@@ -4203,7 +4206,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4224,24 +4227,24 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="G2:G11 D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="87" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="87" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="87" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="87" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="87" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="87" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="87" width="80.2307692307692"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="87" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="87" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="87" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="87" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="87" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="87" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="87" width="80.8744939271255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="87" width="59.2348178137652"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="87" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="87" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="87" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="87" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="87" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="87" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="87" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="87" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="87" width="11.6761133603239"/>
@@ -4262,7 +4265,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F1" s="96" t="s">
         <v>5</v>
@@ -4283,19 +4286,19 @@
         <v>4</v>
       </c>
       <c r="L1" s="96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M1" s="96" t="s">
         <v>189</v>
       </c>
       <c r="N1" s="96" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O1" s="96" t="s">
         <v>190</v>
       </c>
       <c r="P1" s="96" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="96" t="s">
         <v>8</v>
@@ -4304,7 +4307,7 @@
         <v>9</v>
       </c>
       <c r="S1" s="96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,7 +4330,7 @@
         <v>116</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H2" s="69" t="s">
         <v>211</v>
@@ -4339,7 +4342,7 @@
       <c r="K2" s="76"/>
       <c r="L2" s="76"/>
       <c r="M2" s="76" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N2" s="103"/>
       <c r="O2" s="76" t="s">
@@ -4374,7 +4377,7 @@
         <v>122</v>
       </c>
       <c r="G3" s="69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H3" s="69" t="s">
         <v>211</v>
@@ -4386,7 +4389,7 @@
       <c r="K3" s="76"/>
       <c r="L3" s="76"/>
       <c r="M3" s="76" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N3" s="103"/>
       <c r="O3" s="76" t="s">
@@ -4421,10 +4424,10 @@
         <v>125</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I4" s="69"/>
       <c r="J4" s="76" t="s">
@@ -4433,7 +4436,7 @@
       <c r="K4" s="76"/>
       <c r="L4" s="76"/>
       <c r="M4" s="76" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N4" s="103"/>
       <c r="O4" s="76" t="s">
@@ -4468,10 +4471,10 @@
         <v>129</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I5" s="69"/>
       <c r="J5" s="76" t="s">
@@ -4480,7 +4483,7 @@
       <c r="K5" s="76"/>
       <c r="L5" s="76"/>
       <c r="M5" s="76" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N5" s="103"/>
       <c r="O5" s="76" t="s">
@@ -4515,10 +4518,10 @@
         <v>132</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I6" s="69"/>
       <c r="J6" s="76" t="s">
@@ -4527,7 +4530,7 @@
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
       <c r="M6" s="76" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N6" s="103"/>
       <c r="O6" s="76" t="s">
@@ -4560,22 +4563,22 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4596,22 +4599,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -4620,7 +4623,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4639,11 +4642,11 @@
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="104" t="s">
-        <v>302</v>
+      <c r="G2" s="94" t="s">
+        <v>304</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4669,10 +4672,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4698,10 +4701,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="94" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -4722,20 +4725,20 @@
       <c r="D5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="104" t="s">
         <v>141</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4760,17 +4763,17 @@
       <c r="D6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="104" t="s">
         <v>142</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4791,13 +4794,13 @@
         <v>13</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4826,11 +4829,11 @@
       <c r="F8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="106" t="s">
-        <v>309</v>
+      <c r="G8" s="105" t="s">
+        <v>311</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -4853,10 +4856,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
@@ -4879,10 +4882,10 @@
         <v>13</v>
       </c>
       <c r="G10" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="50" t="s">
         <v>312</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>310</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
@@ -4908,10 +4911,10 @@
         <v>13</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
@@ -4924,7 +4927,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="52"/>
-      <c r="C12" s="107" t="n">
+      <c r="C12" s="106" t="n">
         <v>100</v>
       </c>
       <c r="D12" s="54" t="s">
@@ -4935,10 +4938,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
@@ -4965,7 +4968,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="G2:G11 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5035,7 +5038,7 @@
         <v>110</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E2" s="69" t="s">
         <v>208</v>
@@ -5047,7 +5050,7 @@
         <v>191</v>
       </c>
       <c r="H2" s="76" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I2" s="76"/>
       <c r="J2" s="69"/>
@@ -5061,7 +5064,7 @@
         <v>200</v>
       </c>
       <c r="N2" s="74" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O2" s="73" t="s">
         <v>42</v>
@@ -5089,20 +5092,20 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="G2:G11 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5233,27 +5236,27 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="G2:G11 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="69.3076923076923"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="64.4858299595142"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="65.0202429149798"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -5667,7 +5670,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="G2:G11 D2"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5678,14 +5681,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5747,29 +5750,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="122.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="24" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J2" s="71" t="s">
         <v>209</v>
@@ -5809,17 +5812,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G2:G11 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.2712550607287"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.9473684210526"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5841,7 +5844,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -5850,7 +5853,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,7 +5873,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>30</v>
@@ -5893,7 +5896,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
@@ -5916,7 +5919,7 @@
         <v>79</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>19</v>
@@ -5939,7 +5942,7 @@
         <v>79</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>19</v>
@@ -5962,7 +5965,7 @@
         <v>72</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>19</v>
@@ -5985,7 +5988,7 @@
         <v>72</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>19</v>
@@ -6008,7 +6011,7 @@
         <v>72</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>19</v>
@@ -6019,7 +6022,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>51</v>
@@ -6031,7 +6034,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>19</v>
@@ -6074,20 +6077,20 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="G2:G11 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="87" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="87" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="87" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="87" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="87" width="62.9878542510121"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="87" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="87" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="87" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="87" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="87" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="87" width="67.0566801619433"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="87" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="87" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="87" width="85.0526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="87" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="87" width="85.6963562753036"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="87" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="87" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="87" width="13.3886639676113"/>
@@ -6121,16 +6124,16 @@
         <v>197</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>214</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>189</v>
@@ -6151,7 +6154,7 @@
         <v>9</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6162,13 +6165,13 @@
         <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>57</v>
@@ -6177,7 +6180,7 @@
         <v>198</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>215</v>
@@ -6210,16 +6213,16 @@
         <v>56</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>198</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>215</v>
@@ -6252,16 +6255,16 @@
         <v>56</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>198</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I4" s="36" t="s">
         <v>121</v>
@@ -6294,16 +6297,16 @@
         <v>56</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>198</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>121</v>
@@ -6336,19 +6339,19 @@
         <v>56</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>198</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -6378,19 +6381,19 @@
         <v>56</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>198</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -6420,10 +6423,10 @@
         <v>56</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>198</v>
@@ -6454,13 +6457,13 @@
         <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>72</v>
@@ -6470,7 +6473,7 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="87" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J9" s="87" t="s">
         <v>216</v>
@@ -6502,7 +6505,7 @@
         <v>56</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>72</v>
@@ -6542,7 +6545,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>72</v>
@@ -6552,7 +6555,7 @@
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="82" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
@@ -6587,26 +6590,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G2:G11"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.0971659919028"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6624,7 +6627,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E1" s="96" t="s">
         <v>6</v>
@@ -6645,34 +6648,34 @@
         <v>191</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L1" s="96" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M1" s="96" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N1" s="96" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O1" s="96" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P1" s="96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="96" t="s">
         <v>189</v>
       </c>
       <c r="R1" s="96" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S1" s="96" t="s">
         <v>190</v>
       </c>
       <c r="T1" s="96" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="U1" s="96" t="s">
         <v>8</v>
@@ -6681,7 +6684,7 @@
         <v>9</v>
       </c>
       <c r="W1" s="96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,26 +6699,26 @@
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="75" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H2" s="76" t="s">
         <v>175</v>
       </c>
       <c r="I2" s="76"/>
       <c r="J2" s="76" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L2" s="44" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -6747,35 +6750,35 @@
         <v>177</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H3" s="76" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="76" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K3" s="98" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L3" s="98"/>
       <c r="M3" s="99" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N3" s="99" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O3" s="99" t="s">
         <v>196</v>
@@ -6815,24 +6818,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G2:G11 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6860,31 +6863,31 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>189</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>190</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,26 +6904,26 @@
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G2" s="100" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H2" s="101" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J2" s="101"/>
       <c r="K2" s="73" t="s">
         <v>199</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>19</v>
@@ -6940,16 +6943,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H3" s="101" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I3" s="101" t="n">
         <v>2</v>
@@ -6959,7 +6962,7 @@
         <v>199</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>19</v>
@@ -6979,26 +6982,26 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H4" s="101" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="73" t="s">
         <v>199</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>19</v>
@@ -7023,16 +7026,16 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="G2:G11 C4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7047,10 +7050,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7064,7 +7067,7 @@
         <v>143</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -7081,7 +7084,7 @@
         <v>148</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -7098,7 +7101,7 @@
         <v>151</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -7115,7 +7118,7 @@
         <v>154</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -7132,7 +7135,7 @@
         <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -7149,7 +7152,7 @@
         <v>161</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -7166,7 +7169,7 @@
         <v>162</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -7183,7 +7186,7 @@
         <v>163</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -7200,7 +7203,7 @@
         <v>167</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -7217,7 +7220,7 @@
         <v>168</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -7234,7 +7237,7 @@
         <v>169</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -7251,7 +7254,7 @@
         <v>170</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -7268,7 +7271,7 @@
         <v>179</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -7285,7 +7288,7 @@
         <v>180</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -7302,7 +7305,7 @@
         <v>181</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -7319,7 +7322,7 @@
         <v>182</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -7336,7 +7339,7 @@
         <v>135</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
